--- a/data/strategies/天风场外策略结果.xlsx
+++ b/data/strategies/天风场外策略结果.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="189">
   <si>
     <t>南方中证申万有色金属ETF联接A</t>
   </si>
@@ -26,12 +26,12 @@
     <t>国泰中证钢铁ETF联接A</t>
   </si>
   <si>
+    <t>富国中证新能源汽车</t>
+  </si>
+  <si>
     <t xml:space="preserve">华宝中证医疗ETF联接A </t>
   </si>
   <si>
-    <t>富国中证新能源汽车</t>
-  </si>
-  <si>
     <t>业绩确定性</t>
   </si>
   <si>
@@ -62,73 +62,70 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>5.11%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>26.58%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>18.49%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>23.57%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
-  </si>
-  <si>
-    <t>20.91%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>26.25%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
+    <t>9.33%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>24.30%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>25.14%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>27.39%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>21.93%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>26.35%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
   </si>
   <si>
     <t>场外权重</t>
   </si>
   <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
   </si>
   <si>
     <t>场外基金</t>
@@ -143,79 +140,82 @@
     <t>008189.OF</t>
   </si>
   <si>
+    <t>161028.OF</t>
+  </si>
+  <si>
     <t>162412.OF</t>
   </si>
   <si>
-    <t>161028.OF</t>
-  </si>
-  <si>
-    <t>-1.50%</t>
-  </si>
-  <si>
-    <t>1.32%</t>
-  </si>
-  <si>
-    <t>1.60%</t>
-  </si>
-  <si>
-    <t>15.09%</t>
-  </si>
-  <si>
-    <t>14.33%</t>
-  </si>
-  <si>
-    <t>15.47%</t>
-  </si>
-  <si>
-    <t>26.64%</t>
-  </si>
-  <si>
-    <t>41.45%</t>
-  </si>
-  <si>
-    <t>11.73%</t>
-  </si>
-  <si>
-    <t>29.84%</t>
-  </si>
-  <si>
-    <t>15.29%</t>
-  </si>
-  <si>
-    <t>19.32%</t>
-  </si>
-  <si>
-    <t>26.53%</t>
-  </si>
-  <si>
-    <t>20.17%</t>
-  </si>
-  <si>
-    <t>38.70%</t>
-  </si>
-  <si>
-    <t>29.01%</t>
-  </si>
-  <si>
-    <t>28.29%</t>
-  </si>
-  <si>
-    <t>25.77%</t>
-  </si>
-  <si>
-    <t>33.35%</t>
-  </si>
-  <si>
-    <t>38.11%</t>
-  </si>
-  <si>
-    <t>29.74%</t>
-  </si>
-  <si>
-    <t>32.10%</t>
-  </si>
-  <si>
-    <t>37.32%</t>
+    <t>12.18%</t>
+  </si>
+  <si>
+    <t>2.78%</t>
+  </si>
+  <si>
+    <t>24.34%</t>
+  </si>
+  <si>
+    <t>-3.09%</t>
+  </si>
+  <si>
+    <t>23.14%</t>
+  </si>
+  <si>
+    <t>6.09%</t>
+  </si>
+  <si>
+    <t>51.03%</t>
+  </si>
+  <si>
+    <t>11.88%</t>
+  </si>
+  <si>
+    <t>27.53%</t>
+  </si>
+  <si>
+    <t>31.73%</t>
+  </si>
+  <si>
+    <t>37.23%</t>
+  </si>
+  <si>
+    <t>8.42%</t>
+  </si>
+  <si>
+    <t>36.04%</t>
+  </si>
+  <si>
+    <t>23.22%</t>
+  </si>
+  <si>
+    <t>36.71%</t>
+  </si>
+  <si>
+    <t>36.17%</t>
+  </si>
+  <si>
+    <t>32.11%</t>
+  </si>
+  <si>
+    <t>27.54%</t>
+  </si>
+  <si>
+    <t>34.11%</t>
+  </si>
+  <si>
+    <t>29.41%</t>
+  </si>
+  <si>
+    <t>38.54%</t>
+  </si>
+  <si>
+    <t>29.44%</t>
+  </si>
+  <si>
+    <t>37.22%</t>
+  </si>
+  <si>
+    <t>33.14%</t>
   </si>
   <si>
     <t>股票代码</t>
@@ -230,7 +230,10 @@
     <t>财报主营构成</t>
   </si>
   <si>
-    <t>区间涨跌幅</t>
+    <t>区间收益率</t>
+  </si>
+  <si>
+    <t>300015.SZ</t>
   </si>
   <si>
     <t>603259.SH</t>
@@ -239,39 +242,27 @@
     <t>300760.SZ</t>
   </si>
   <si>
+    <t>300347.SZ</t>
+  </si>
+  <si>
     <t>002460.SZ</t>
   </si>
   <si>
-    <t>300015.SZ</t>
+    <t>002812.SZ</t>
+  </si>
+  <si>
+    <t>600885.SH</t>
+  </si>
+  <si>
+    <t>002050.SZ</t>
   </si>
   <si>
     <t>002340.SZ</t>
   </si>
   <si>
-    <t>300347.SZ</t>
-  </si>
-  <si>
-    <t>600019.SH</t>
-  </si>
-  <si>
     <t>600763.SH</t>
   </si>
   <si>
-    <t>600010.SH</t>
-  </si>
-  <si>
-    <t>002812.SZ</t>
-  </si>
-  <si>
-    <t>600885.SH</t>
-  </si>
-  <si>
-    <t>601899.SH</t>
-  </si>
-  <si>
-    <t>002050.SZ</t>
-  </si>
-  <si>
     <t>300750.SZ</t>
   </si>
   <si>
@@ -290,52 +281,79 @@
     <t>600066.SH</t>
   </si>
   <si>
+    <t>300759.SZ</t>
+  </si>
+  <si>
     <t>603659.SH</t>
   </si>
   <si>
-    <t>3.99%</t>
-  </si>
-  <si>
-    <t>3.70%</t>
-  </si>
-  <si>
-    <t>3.55%</t>
-  </si>
-  <si>
-    <t>3.15%</t>
-  </si>
-  <si>
-    <t>2.41%</t>
-  </si>
-  <si>
-    <t>2.09%</t>
-  </si>
-  <si>
-    <t>1.80%</t>
-  </si>
-  <si>
-    <t>1.75%</t>
-  </si>
-  <si>
-    <t>1.70%</t>
-  </si>
-  <si>
-    <t>1.68%</t>
-  </si>
-  <si>
-    <t>1.67%</t>
-  </si>
-  <si>
-    <t>1.65%</t>
-  </si>
-  <si>
-    <t>1.61%</t>
-  </si>
-  <si>
-    <t>1.59%</t>
-  </si>
-  <si>
-    <t>1.45%</t>
+    <t>300595.SZ</t>
+  </si>
+  <si>
+    <t>600884.SH</t>
+  </si>
+  <si>
+    <t>343.96%</t>
+  </si>
+  <si>
+    <t>338.65%</t>
+  </si>
+  <si>
+    <t>314.09%</t>
+  </si>
+  <si>
+    <t>181.80%</t>
+  </si>
+  <si>
+    <t>177.44%</t>
+  </si>
+  <si>
+    <t>169.82%</t>
+  </si>
+  <si>
+    <t>168.13%</t>
+  </si>
+  <si>
+    <t>166.91%</t>
+  </si>
+  <si>
+    <t>166.88%</t>
+  </si>
+  <si>
+    <t>165.40%</t>
+  </si>
+  <si>
+    <t>165.26%</t>
+  </si>
+  <si>
+    <t>160.51%</t>
+  </si>
+  <si>
+    <t>159.82%</t>
+  </si>
+  <si>
+    <t>158.53%</t>
+  </si>
+  <si>
+    <t>144.74%</t>
+  </si>
+  <si>
+    <t>144.67%</t>
+  </si>
+  <si>
+    <t>140.68%</t>
+  </si>
+  <si>
+    <t>131.87%</t>
+  </si>
+  <si>
+    <t>129.72%</t>
+  </si>
+  <si>
+    <t>125.96%</t>
+  </si>
+  <si>
+    <t>爱尔眼科</t>
   </si>
   <si>
     <t>药明康德</t>
@@ -344,39 +362,27 @@
     <t>迈瑞医疗</t>
   </si>
   <si>
+    <t>泰格医药</t>
+  </si>
+  <si>
     <t>赣锋锂业</t>
   </si>
   <si>
-    <t>爱尔眼科</t>
+    <t>恩捷股份</t>
+  </si>
+  <si>
+    <t>宏发股份</t>
+  </si>
+  <si>
+    <t>三花智控</t>
   </si>
   <si>
     <t>格林美</t>
   </si>
   <si>
-    <t>泰格医药</t>
-  </si>
-  <si>
-    <t>宝钢股份</t>
-  </si>
-  <si>
     <t>通策医疗</t>
   </si>
   <si>
-    <t>包钢股份</t>
-  </si>
-  <si>
-    <t>恩捷股份</t>
-  </si>
-  <si>
-    <t>宏发股份</t>
-  </si>
-  <si>
-    <t>紫金矿业</t>
-  </si>
-  <si>
-    <t>三花智控</t>
-  </si>
-  <si>
     <t>宁德时代</t>
   </si>
   <si>
@@ -395,48 +401,48 @@
     <t>宇通客车</t>
   </si>
   <si>
+    <t>康龙化成</t>
+  </si>
+  <si>
     <t>璞泰来</t>
   </si>
   <si>
+    <t>欧普康视</t>
+  </si>
+  <si>
+    <t>杉杉股份</t>
+  </si>
+  <si>
+    <t>医疗服务-准分子手术</t>
+  </si>
+  <si>
     <t>中国区实验室服务</t>
   </si>
   <si>
     <t>生命信息与支持类产品</t>
   </si>
   <si>
+    <t>临床研究相关咨询服务</t>
+  </si>
+  <si>
     <t>锂系列产品</t>
   </si>
   <si>
-    <t>医疗服务-准分子手术</t>
+    <t>膜类产品</t>
+  </si>
+  <si>
+    <t>继电器产品</t>
+  </si>
+  <si>
+    <t>空调冰箱之元器件及部件</t>
   </si>
   <si>
     <t>三元材料</t>
   </si>
   <si>
-    <t>临床研究相关咨询服务</t>
-  </si>
-  <si>
-    <t>其他业务</t>
-  </si>
-  <si>
     <t>医疗服务</t>
   </si>
   <si>
-    <t>板材</t>
-  </si>
-  <si>
-    <t>膜类产品</t>
-  </si>
-  <si>
-    <t>继电器产品</t>
-  </si>
-  <si>
-    <t>加工、冶炼及贸易金</t>
-  </si>
-  <si>
-    <t>空调冰箱之元器件及部件</t>
-  </si>
-  <si>
     <t>动力电池系统</t>
   </si>
   <si>
@@ -455,67 +461,76 @@
     <t>客车产品</t>
   </si>
   <si>
+    <t>药物发现与研究</t>
+  </si>
+  <si>
     <t>负极材料</t>
   </si>
   <si>
-    <t>44.35%</t>
-  </si>
-  <si>
-    <t>12.99%</t>
-  </si>
-  <si>
-    <t>21.15%</t>
-  </si>
-  <si>
-    <t>22.94%</t>
-  </si>
-  <si>
-    <t>37.76%</t>
-  </si>
-  <si>
-    <t>20.12%</t>
-  </si>
-  <si>
-    <t>33.59%</t>
-  </si>
-  <si>
-    <t>49.29%</t>
-  </si>
-  <si>
-    <t>35.90%</t>
-  </si>
-  <si>
-    <t>61.61%</t>
-  </si>
-  <si>
-    <t>13.98%</t>
-  </si>
-  <si>
-    <t>7.55%</t>
-  </si>
-  <si>
-    <t>0.16%</t>
-  </si>
-  <si>
-    <t>45.26%</t>
-  </si>
-  <si>
-    <t>11.23%</t>
-  </si>
-  <si>
-    <t>17.94%</t>
-  </si>
-  <si>
-    <t>36.36%</t>
-  </si>
-  <si>
-    <t>34.17%</t>
-  </si>
-  <si>
-    <t>-21.42%</t>
-  </si>
-  <si>
-    <t>66.08%</t>
+    <t>角膜塑形镜(梦戴维)</t>
+  </si>
+  <si>
+    <t>正极材料</t>
+  </si>
+  <si>
+    <t>16.08%</t>
+  </si>
+  <si>
+    <t>47.28%</t>
+  </si>
+  <si>
+    <t>10.26%</t>
+  </si>
+  <si>
+    <t>2.29%</t>
+  </si>
+  <si>
+    <t>65.23%</t>
+  </si>
+  <si>
+    <t>92.74%</t>
+  </si>
+  <si>
+    <t>28.06%</t>
+  </si>
+  <si>
+    <t>-0.43%</t>
+  </si>
+  <si>
+    <t>71.37%</t>
+  </si>
+  <si>
+    <t>32.76%</t>
+  </si>
+  <si>
+    <t>66.49%</t>
+  </si>
+  <si>
+    <t>28.45%</t>
+  </si>
+  <si>
+    <t>38.18%</t>
+  </si>
+  <si>
+    <t>43.27%</t>
+  </si>
+  <si>
+    <t>62.80%</t>
+  </si>
+  <si>
+    <t>-22.77%</t>
+  </si>
+  <si>
+    <t>87.65%</t>
+  </si>
+  <si>
+    <t>121.25%</t>
+  </si>
+  <si>
+    <t>70.49%</t>
+  </si>
+  <si>
+    <t>79.54%</t>
   </si>
   <si>
     <t>一级标签</t>
@@ -533,52 +548,43 @@
     <t>医疗器械</t>
   </si>
   <si>
-    <t>钢铁</t>
-  </si>
-  <si>
     <t>电气设备</t>
   </si>
   <si>
-    <t>家电家具</t>
-  </si>
-  <si>
-    <t>有色金属</t>
-  </si>
-  <si>
-    <t>太阳能光伏</t>
+    <t>家用电器</t>
+  </si>
+  <si>
+    <t>光伏太阳能</t>
   </si>
   <si>
     <t xml:space="preserve">锂电池 </t>
   </si>
   <si>
-    <t>29.40%</t>
-  </si>
-  <si>
-    <t>14.60%</t>
-  </si>
-  <si>
-    <t>11.89%</t>
-  </si>
-  <si>
-    <t>8.89%</t>
-  </si>
-  <si>
-    <t>8.53%</t>
-  </si>
-  <si>
-    <t>7.30%</t>
-  </si>
-  <si>
-    <t>4.04%</t>
-  </si>
-  <si>
-    <t>4.01%</t>
-  </si>
-  <si>
-    <t>3.84%</t>
-  </si>
-  <si>
-    <t>3.48%</t>
+    <t>19.21%</t>
+  </si>
+  <si>
+    <t>11.57%</t>
+  </si>
+  <si>
+    <t>8.91%</t>
+  </si>
+  <si>
+    <t>7.77%</t>
+  </si>
+  <si>
+    <t>5.31%</t>
+  </si>
+  <si>
+    <t>2.94%</t>
+  </si>
+  <si>
+    <t>2.92%</t>
+  </si>
+  <si>
+    <t>2.80%</t>
+  </si>
+  <si>
+    <t>2.53%</t>
   </si>
 </sst>
 </file>
@@ -942,7 +948,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1011,13 +1017,13 @@
         <v>1.014441347859134</v>
       </c>
       <c r="D3">
-        <v>0.9958954089388872</v>
+        <v>1.067812326142054</v>
       </c>
       <c r="E3">
-        <v>1.067860508953817</v>
+        <v>0.9959402985074626</v>
       </c>
       <c r="F3">
-        <v>1.032661889448053</v>
+        <v>1.032660802677801</v>
       </c>
       <c r="G3">
         <v>1.018168368380631</v>
@@ -1037,13 +1043,13 @@
         <v>1.005911662866312</v>
       </c>
       <c r="D4">
-        <v>1.013681970203709</v>
+        <v>1.07442665512765</v>
       </c>
       <c r="E4">
-        <v>1.074458058435438</v>
+        <v>1.013731343283582</v>
       </c>
       <c r="F4">
-        <v>1.04118946374313</v>
+        <v>1.041195393767918</v>
       </c>
       <c r="G4">
         <v>1.027111201157197</v>
@@ -1063,13 +1069,13 @@
         <v>1.005320496579681</v>
       </c>
       <c r="D5">
-        <v>1.033064761325631</v>
+        <v>1.05934351239414</v>
       </c>
       <c r="E5">
-        <v>1.05937794533459</v>
+        <v>1.033074626865672</v>
       </c>
       <c r="F5">
-        <v>1.043365145517653</v>
+        <v>1.043357038275518</v>
       </c>
       <c r="G5">
         <v>1.025290909062353</v>
@@ -1089,13 +1095,13 @@
         <v>1.022886580525294</v>
       </c>
       <c r="D6">
-        <v>1.041730009121314</v>
+        <v>1.086666254558942</v>
       </c>
       <c r="E6">
-        <v>1.086710650329878</v>
+        <v>1.041791044776119</v>
       </c>
       <c r="F6">
-        <v>1.064829222727946</v>
+        <v>1.064834713889623</v>
       </c>
       <c r="G6">
         <v>1.026858339183711</v>
@@ -1115,13 +1121,13 @@
         <v>1.029389409678237</v>
       </c>
       <c r="D7">
-        <v>1.042566129522651</v>
+        <v>1.07727019842987</v>
       </c>
       <c r="E7">
-        <v>1.077285579641847</v>
+        <v>1.042626865671642</v>
       </c>
       <c r="F7">
-        <v>1.062479115521437</v>
+        <v>1.062494082650651</v>
       </c>
       <c r="G7">
         <v>1.029917812005761</v>
@@ -1141,13 +1147,13 @@
         <v>1.001942403513217</v>
       </c>
       <c r="D8">
-        <v>1.045226512617817</v>
+        <v>1.040489583977252</v>
       </c>
       <c r="E8">
-        <v>1.04052780395853</v>
+        <v>1.045253731343283</v>
       </c>
       <c r="F8">
-        <v>1.039576293561268</v>
+        <v>1.039572663146851</v>
       </c>
       <c r="G8">
         <v>1.013866573688848</v>
@@ -1167,13 +1173,13 @@
         <v>1.008107423359514</v>
       </c>
       <c r="D9">
-        <v>1.055944055944056</v>
+        <v>1.063114298077517</v>
       </c>
       <c r="E9">
-        <v>1.063147973609802</v>
+        <v>1.056</v>
       </c>
       <c r="F9">
-        <v>1.055470730489322</v>
+        <v>1.05547807910213</v>
       </c>
       <c r="G9">
         <v>1.027660901099557</v>
@@ -1193,13 +1199,13 @@
         <v>1.009627565239422</v>
       </c>
       <c r="D10">
-        <v>1.039449680754029</v>
+        <v>1.032020770229338</v>
       </c>
       <c r="E10">
-        <v>1.032045240339303</v>
+        <v>1.039522388059702</v>
       </c>
       <c r="F10">
-        <v>1.034531738446563</v>
+        <v>1.034547656721147</v>
       </c>
       <c r="G10">
         <v>1.020386015005238</v>
@@ -1219,13 +1225,13 @@
         <v>1.028207077104974</v>
       </c>
       <c r="D11">
-        <v>1.040969899665552</v>
+        <v>1.005625270445694</v>
       </c>
       <c r="E11">
-        <v>1.005655042412818</v>
+        <v>1.041074626865672</v>
       </c>
       <c r="F11">
-        <v>1.026376989549263</v>
+        <v>1.026401724776152</v>
       </c>
       <c r="G11">
         <v>1.011430617658561</v>
@@ -1245,13 +1251,13 @@
         <v>1.017059369985643</v>
       </c>
       <c r="D12">
-        <v>1.038461538461539</v>
+        <v>1.02824998454596</v>
       </c>
       <c r="E12">
-        <v>1.02827521206409</v>
+        <v>1.038567164179105</v>
       </c>
       <c r="F12">
-        <v>1.032730627978424</v>
+        <v>1.032757159384238</v>
       </c>
       <c r="G12">
         <v>1.007914108598721</v>
@@ -1271,13 +1277,13 @@
         <v>1.017143822312305</v>
       </c>
       <c r="D13">
-        <v>1.050091213134691</v>
+        <v>1.034864313531557</v>
       </c>
       <c r="E13">
-        <v>1.034872761545712</v>
+        <v>1.050149253731343</v>
       </c>
       <c r="F13">
-        <v>1.041312067610464</v>
+        <v>1.041328433162688</v>
       </c>
       <c r="G13">
         <v>1.023142367573358</v>
@@ -1297,13 +1303,13 @@
         <v>1.013343467612533</v>
       </c>
       <c r="D14">
-        <v>1.029112192155671</v>
+        <v>1.008468813747914</v>
       </c>
       <c r="E14">
-        <v>1.008482563619227</v>
+        <v>1.029134328358209</v>
       </c>
       <c r="F14">
-        <v>1.019090461368983</v>
+        <v>1.019093228858287</v>
       </c>
       <c r="G14">
         <v>1.017160061629216</v>
@@ -1323,13 +1329,13 @@
         <v>1.040790473777553</v>
       </c>
       <c r="D15">
-        <v>1.072286409242931</v>
+        <v>1.051801941027385</v>
       </c>
       <c r="E15">
-        <v>1.051837888784166</v>
+        <v>1.072358208955224</v>
       </c>
       <c r="F15">
-        <v>1.057146756915817</v>
+        <v>1.057158588061136</v>
       </c>
       <c r="G15">
         <v>1.026434284942462</v>
@@ -1349,13 +1355,13 @@
         <v>1.043324043577401</v>
       </c>
       <c r="D16">
-        <v>1.105959258133171</v>
+        <v>1.073499412746492</v>
       </c>
       <c r="E16">
-        <v>1.073515551366635</v>
+        <v>1.106029850746269</v>
       </c>
       <c r="F16">
-        <v>1.081853996765316</v>
+        <v>1.081871966582991</v>
       </c>
       <c r="G16">
         <v>1.04011081950838</v>
@@ -1375,13 +1381,13 @@
         <v>1.031331813191454</v>
       </c>
       <c r="D17">
-        <v>1.168060200668896</v>
+        <v>1.100822154911294</v>
       </c>
       <c r="E17">
-        <v>1.100848256361923</v>
+        <v>1.168119402985075</v>
       </c>
       <c r="F17">
-        <v>1.110990643507162</v>
+        <v>1.111001566792793</v>
       </c>
       <c r="G17">
         <v>1.042515364113389</v>
@@ -1401,13 +1407,13 @@
         <v>1.023562199138586</v>
       </c>
       <c r="D18">
-        <v>1.180525995743387</v>
+        <v>1.097978611609075</v>
       </c>
       <c r="E18">
-        <v>1.098020735155514</v>
+        <v>1.180537313432836</v>
       </c>
       <c r="F18">
-        <v>1.115402538260073</v>
+        <v>1.115392372327267</v>
       </c>
       <c r="G18">
         <v>1.043693292561303</v>
@@ -1427,13 +1433,13 @@
         <v>1.029136052698252</v>
       </c>
       <c r="D19">
-        <v>1.135147461234418</v>
+        <v>1.067812326142054</v>
       </c>
       <c r="E19">
-        <v>1.067860508953817</v>
+        <v>1.135164179104478</v>
       </c>
       <c r="F19">
-        <v>1.088148228256623</v>
+        <v>1.088137844825861</v>
       </c>
       <c r="G19">
         <v>1.026047924411546</v>
@@ -1453,13 +1459,13 @@
         <v>1.029896123638206</v>
       </c>
       <c r="D20">
-        <v>1.12975068409851</v>
+        <v>1.073499412746492</v>
       </c>
       <c r="E20">
-        <v>1.073515551366635</v>
+        <v>1.129791044776119</v>
       </c>
       <c r="F20">
-        <v>1.087288099956561</v>
+        <v>1.087296093235525</v>
       </c>
       <c r="G20">
         <v>1.02984870687015</v>
@@ -1479,13 +1485,13 @@
         <v>1.012921205979225</v>
       </c>
       <c r="D21">
-        <v>1.088020674977197</v>
+        <v>1.033875254991655</v>
       </c>
       <c r="E21">
-        <v>1.033930254476909</v>
+        <v>1.088119402985075</v>
       </c>
       <c r="F21">
-        <v>1.05113769568694</v>
+        <v>1.051152126099406</v>
       </c>
       <c r="G21">
         <v>1.007424090364388</v>
@@ -1505,13 +1511,13 @@
         <v>0.9965374546068744</v>
       </c>
       <c r="D22">
-        <v>1.083764062024932</v>
+        <v>1.015021326574767</v>
       </c>
       <c r="E22">
-        <v>1.015080113100848</v>
+        <v>1.083820895522388</v>
       </c>
       <c r="F22">
-        <v>1.038678833963565</v>
+        <v>1.038678189464119</v>
       </c>
       <c r="G22">
         <v>0.9967065120596316</v>
@@ -1531,13 +1537,13 @@
         <v>0.9993243813867073</v>
       </c>
       <c r="D23">
-        <v>1.108619641228337</v>
+        <v>1.016010385114669</v>
       </c>
       <c r="E23">
-        <v>1.016022620169651</v>
+        <v>1.10865671641791</v>
       </c>
       <c r="F23">
-        <v>1.049580054060039</v>
+        <v>1.049588251304454</v>
       </c>
       <c r="G23">
         <v>1.004110184997589</v>
@@ -1557,13 +1563,13 @@
         <v>1.006502829152943</v>
       </c>
       <c r="D24">
-        <v>1.117588932806324</v>
+        <v>1.057489027631823</v>
       </c>
       <c r="E24">
-        <v>1.057492931196984</v>
+        <v>1.117611940298507</v>
       </c>
       <c r="F24">
-        <v>1.072398545459808</v>
+        <v>1.072404849755725</v>
       </c>
       <c r="G24">
         <v>1.013770768841751</v>
@@ -1583,13 +1589,13 @@
         <v>1.0211130816654</v>
       </c>
       <c r="D25">
-        <v>1.120933414411675</v>
+        <v>1.054645484329604</v>
       </c>
       <c r="E25">
-        <v>1.054665409990575</v>
+        <v>1.120955223880597</v>
       </c>
       <c r="F25">
-        <v>1.075993132232157</v>
+        <v>1.075993753888781</v>
       </c>
       <c r="G25">
         <v>1.00506038061224</v>
@@ -1609,13 +1615,13 @@
         <v>1.010472088506038</v>
       </c>
       <c r="D26">
-        <v>1.105047126786257</v>
+        <v>1.031093527848179</v>
       </c>
       <c r="E26">
-        <v>1.0311027332705</v>
+        <v>1.105074626865672</v>
       </c>
       <c r="F26">
-        <v>1.053795140963522</v>
+        <v>1.053801178200363</v>
       </c>
       <c r="G26">
         <v>0.9939815709167896</v>
@@ -1635,13 +1641,13 @@
         <v>1.002871379106494</v>
       </c>
       <c r="D27">
-        <v>1.126862268166616</v>
+        <v>1.002781727143475</v>
       </c>
       <c r="E27">
-        <v>1.002827521206409</v>
+        <v>1.126925373134328</v>
       </c>
       <c r="F27">
-        <v>1.042076876052314</v>
+        <v>1.04208258865089</v>
       </c>
       <c r="G27">
         <v>0.9800160512383169</v>
@@ -1661,13 +1667,13 @@
         <v>0.9996621906933536</v>
       </c>
       <c r="D28">
-        <v>1.139480085132259</v>
+        <v>1.019781170798047</v>
       </c>
       <c r="E28">
-        <v>1.019792648444863</v>
+        <v>1.139582089552239</v>
       </c>
       <c r="F28">
-        <v>1.057690722646469</v>
+        <v>1.057720596481613</v>
       </c>
       <c r="G28">
         <v>0.9930973392952219</v>
@@ -1687,13 +1693,13 @@
         <v>1.010809897812685</v>
       </c>
       <c r="D29">
-        <v>1.161067193675889</v>
+        <v>1.049947456265068</v>
       </c>
       <c r="E29">
-        <v>1.04995287464656</v>
+        <v>1.161074626865672</v>
       </c>
       <c r="F29">
-        <v>1.084822453322713</v>
+        <v>1.084823118209449</v>
       </c>
       <c r="G29">
         <v>1.014256075362292</v>
@@ -1713,13 +1719,13 @@
         <v>1.018663964192214</v>
       </c>
       <c r="D30">
-        <v>1.189647309212527</v>
+        <v>1.062187055696359</v>
       </c>
       <c r="E30">
-        <v>1.062205466540999</v>
+        <v>1.189731343283582</v>
       </c>
       <c r="F30">
-        <v>1.104333672627389</v>
+        <v>1.104355328292106</v>
       </c>
       <c r="G30">
         <v>1.024824449396979</v>
@@ -1739,13 +1745,13 @@
         <v>1.06283253103623</v>
       </c>
       <c r="D31">
-        <v>1.137503800547279</v>
+        <v>1.039562341596093</v>
       </c>
       <c r="E31">
-        <v>1.039585296889727</v>
+        <v>1.13755223880597</v>
       </c>
       <c r="F31">
-        <v>1.099275994158766</v>
+        <v>1.099284403537235</v>
       </c>
       <c r="G31">
         <v>1.038860644782327</v>
@@ -1765,13 +1771,13 @@
         <v>1.06967316949582</v>
       </c>
       <c r="D32">
-        <v>1.150197628458498</v>
+        <v>1.024479198862583</v>
       </c>
       <c r="E32">
-        <v>1.024505183788878</v>
+        <v>1.150208955223881</v>
       </c>
       <c r="F32">
-        <v>1.102421798954689</v>
+        <v>1.102416961761588</v>
       </c>
       <c r="G32">
         <v>1.052829305603327</v>
@@ -1791,13 +1797,13 @@
         <v>1.127607465585677</v>
       </c>
       <c r="D33">
-        <v>1.10063849194284</v>
+        <v>1.007479755208011</v>
       </c>
       <c r="E33">
-        <v>1.007540056550424</v>
+        <v>1.10065671641791</v>
       </c>
       <c r="F33">
-        <v>1.099652930893083</v>
+        <v>1.09963904552686</v>
       </c>
       <c r="G33">
         <v>1.045538713796369</v>
@@ -1817,13 +1823,13 @@
         <v>1.12093573177941</v>
       </c>
       <c r="D34">
-        <v>1.08498023715415</v>
+        <v>0.9896148853310256</v>
       </c>
       <c r="E34">
-        <v>0.9896324222431668</v>
+        <v>1.085014925373134</v>
       </c>
       <c r="F34">
-        <v>1.084839523608553</v>
+        <v>1.084845183539811</v>
       </c>
       <c r="G34">
         <v>1.041481928221752</v>
@@ -1843,13 +1849,13 @@
         <v>1.103960814120429</v>
       </c>
       <c r="D35">
-        <v>1.045530556400122</v>
+        <v>0.9547505717994684</v>
       </c>
       <c r="E35">
-        <v>0.9547596606974551</v>
+        <v>1.045611940298508</v>
       </c>
       <c r="F35">
-        <v>1.048814048314278</v>
+        <v>1.04883790566441</v>
       </c>
       <c r="G35">
         <v>1.026555218929781</v>
@@ -1869,13 +1875,13 @@
         <v>1.109196858373448</v>
       </c>
       <c r="D36">
-        <v>1.042338096685923</v>
+        <v>0.937751128144897</v>
       </c>
       <c r="E36">
-        <v>0.9377945334590009</v>
+        <v>1.042388059701493</v>
       </c>
       <c r="F36">
-        <v>1.040936616587361</v>
+        <v>1.040938780628844</v>
       </c>
       <c r="G36">
         <v>1.020737822968348</v>
@@ -1895,13 +1901,13 @@
         <v>1.089519466261295</v>
       </c>
       <c r="D37">
-        <v>1.014974156278504</v>
+        <v>0.9179699573468506</v>
       </c>
       <c r="E37">
-        <v>0.9180018850141376</v>
+        <v>1.015044776119403</v>
       </c>
       <c r="F37">
-        <v>1.013634723878646</v>
+        <v>1.013647492295938</v>
       </c>
       <c r="G37">
         <v>0.9995665223311676</v>
@@ -1921,13 +1927,13 @@
         <v>1.126931846972384</v>
       </c>
       <c r="D38">
-        <v>1.02873213742779</v>
+        <v>0.953761513259566</v>
       </c>
       <c r="E38">
-        <v>0.9538171536286523</v>
+        <v>1.028776119402985</v>
       </c>
       <c r="F38">
-        <v>1.042902149169734</v>
+        <v>1.04289830189975</v>
       </c>
       <c r="G38">
         <v>1.019055741144727</v>
@@ -1947,13 +1953,13 @@
         <v>1.123215944599274</v>
       </c>
       <c r="D39">
-        <v>1.009653390088173</v>
+        <v>0.9575322989429437</v>
       </c>
       <c r="E39">
-        <v>0.9575871819038644</v>
+        <v>1.009671641791045</v>
       </c>
       <c r="F39">
-        <v>1.031023012919496</v>
+        <v>1.03101092460434</v>
       </c>
       <c r="G39">
         <v>1.010400322909452</v>
@@ -1973,13 +1979,13 @@
         <v>1.195760493201588</v>
       </c>
       <c r="D40">
-        <v>1.026603830951657</v>
+        <v>0.9650738703096989</v>
       </c>
       <c r="E40">
-        <v>0.9651272384542884</v>
+        <v>1.026626865671642</v>
       </c>
       <c r="F40">
-        <v>1.058086339217368</v>
+        <v>1.058076329187248</v>
       </c>
       <c r="G40">
         <v>1.024758485403896</v>
@@ -1999,13 +2005,13 @@
         <v>1.219069335360189</v>
       </c>
       <c r="D41">
-        <v>0.9798570994223167</v>
+        <v>0.9179699573468506</v>
       </c>
       <c r="E41">
-        <v>0.9180018850141376</v>
+        <v>0.9799402985074627</v>
       </c>
       <c r="F41">
-        <v>1.023767350640694</v>
+        <v>1.023784270208588</v>
       </c>
       <c r="G41">
         <v>1.005478152568434</v>
@@ -2025,13 +2031,13 @@
         <v>1.183346001182333</v>
       </c>
       <c r="D42">
-        <v>0.9825934934630586</v>
+        <v>0.9245842863324474</v>
       </c>
       <c r="E42">
-        <v>0.9245994344957587</v>
+        <v>0.982686567164179</v>
       </c>
       <c r="F42">
-        <v>1.014931622229875</v>
+        <v>1.014957337657353</v>
       </c>
       <c r="G42">
         <v>1.005715308829281</v>
@@ -2051,13 +2057,13 @@
         <v>1.172451651042986</v>
       </c>
       <c r="D43">
-        <v>0.9266494375190027</v>
+        <v>0.8811893428942326</v>
       </c>
       <c r="E43">
-        <v>0.8812441093308201</v>
+        <v>0.9266865671641791</v>
       </c>
       <c r="F43">
-        <v>0.9754752313846629</v>
+        <v>0.9754694112434972</v>
       </c>
       <c r="G43">
         <v>0.9826137761087841</v>
@@ -2077,13 +2083,13 @@
         <v>1.179630098809222</v>
       </c>
       <c r="D44">
-        <v>0.8996655518394648</v>
+        <v>0.8670952587006244</v>
       </c>
       <c r="E44">
-        <v>0.8671065032987748</v>
+        <v>0.8997014925373134</v>
       </c>
       <c r="F44">
-        <v>0.960371894993187</v>
+        <v>0.9603800447060873</v>
       </c>
       <c r="G44">
         <v>0.9593049279814547</v>
@@ -2103,13 +2109,13 @@
         <v>1.165019846296766</v>
       </c>
       <c r="D45">
-        <v>0.9204925509273336</v>
+        <v>0.882178401434135</v>
       </c>
       <c r="E45">
-        <v>0.8821866163996231</v>
+        <v>0.9204776119402985</v>
       </c>
       <c r="F45">
-        <v>0.9695695978537779</v>
+        <v>0.9695619570494454</v>
       </c>
       <c r="G45">
         <v>0.952121135020441</v>
@@ -2129,13 +2135,13 @@
         <v>1.20749936660755</v>
       </c>
       <c r="D46">
-        <v>0.9444359987838248</v>
+        <v>0.9066576002967175</v>
       </c>
       <c r="E46">
-        <v>0.9066918001885014</v>
+        <v>0.9444776119402986</v>
       </c>
       <c r="F46">
-        <v>1.003138670922423</v>
+        <v>1.00314111729977</v>
       </c>
       <c r="G46">
         <v>0.9759262836671583</v>
@@ -2155,13 +2161,13 @@
         <v>1.213326577147201</v>
       </c>
       <c r="D47">
-        <v>0.9461082395865004</v>
+        <v>0.9132719292823145</v>
       </c>
       <c r="E47">
-        <v>0.9132893496701224</v>
+        <v>0.9461492537313433</v>
       </c>
       <c r="F47">
-        <v>1.004809932446253</v>
+        <v>1.004817718386074</v>
       </c>
       <c r="G47">
         <v>0.9772691220977807</v>
@@ -2181,13 +2187,13 @@
         <v>1.231652732032767</v>
       </c>
       <c r="D48">
-        <v>0.9020979020979021</v>
+        <v>0.8897199728008902</v>
       </c>
       <c r="E48">
-        <v>0.889726672950047</v>
+        <v>0.9020895522388059</v>
       </c>
       <c r="F48">
-        <v>0.9859620865570727</v>
+        <v>0.9859571200543493</v>
       </c>
       <c r="G48">
         <v>0.9696502808966706</v>
@@ -2207,13 +2213,13 @@
         <v>1.218140359766912</v>
       </c>
       <c r="D49">
-        <v>0.907190635451505</v>
+        <v>0.8906472151820487</v>
       </c>
       <c r="E49">
-        <v>0.8906691800188501</v>
+        <v>0.907223880597015</v>
       </c>
       <c r="F49">
-        <v>0.9819795755742342</v>
+        <v>0.9819832980761081</v>
       </c>
       <c r="G49">
         <v>0.9730065916875945</v>
@@ -2233,13 +2239,13 @@
         <v>1.205219153787687</v>
       </c>
       <c r="D50">
-        <v>0.9147917300091213</v>
+        <v>0.912344686901156</v>
       </c>
       <c r="E50">
-        <v>0.9123468426013195</v>
+        <v>0.914865671641791</v>
       </c>
       <c r="F50">
-        <v>0.9904523678214017</v>
+        <v>0.9904760571791287</v>
       </c>
       <c r="G50">
         <v>0.9777371523344186</v>
@@ -2259,13 +2265,13 @@
         <v>1.215184528333756</v>
       </c>
       <c r="D51">
-        <v>0.9296138643964732</v>
+        <v>0.9132719292823145</v>
       </c>
       <c r="E51">
-        <v>0.9132893496701224</v>
+        <v>0.9296716417910447</v>
       </c>
       <c r="F51">
-        <v>0.9973656032982212</v>
+        <v>0.9973789211104532</v>
       </c>
       <c r="G51">
         <v>0.9853544229642648</v>
@@ -2285,13 +2291,13 @@
         <v>1.206823747994257</v>
       </c>
       <c r="D52">
-        <v>0.9109151717847369</v>
+        <v>0.8849601285776102</v>
       </c>
       <c r="E52">
-        <v>0.8850141376060321</v>
+        <v>0.9109253731343283</v>
       </c>
       <c r="F52">
-        <v>0.976833005554274</v>
+        <v>0.9768185490202599</v>
       </c>
       <c r="G52">
         <v>0.9747907606433689</v>
@@ -2311,13 +2317,13 @@
         <v>1.212819863187231</v>
       </c>
       <c r="D53">
-        <v>0.9124353906962602</v>
+        <v>0.8962724856277431</v>
       </c>
       <c r="E53">
-        <v>0.8963242224316682</v>
+        <v>0.9124776119402984</v>
       </c>
       <c r="F53">
-        <v>0.9826739996913296</v>
+        <v>0.982670859556567</v>
       </c>
       <c r="G53">
         <v>0.9903535512972134</v>
@@ -2337,13 +2343,13 @@
         <v>1.166962249809982</v>
       </c>
       <c r="D54">
-        <v>0.9087108543630283</v>
+        <v>0.8670952587006244</v>
       </c>
       <c r="E54">
-        <v>0.8671065032987748</v>
+        <v>0.9087761194029851</v>
       </c>
       <c r="F54">
-        <v>0.9573919524714007</v>
+        <v>0.9574097792171968</v>
       </c>
       <c r="G54">
         <v>0.9767649687220733</v>
@@ -2363,13 +2369,13 @@
         <v>1.124398277172536</v>
       </c>
       <c r="D55">
-        <v>0.9103070842201276</v>
+        <v>0.8435433022192002</v>
       </c>
       <c r="E55">
-        <v>0.8435438265786994</v>
+        <v>0.9103283582089552</v>
       </c>
       <c r="F55">
-        <v>0.9360567792878824</v>
+        <v>0.9360636266655606</v>
       </c>
       <c r="G55">
         <v>0.9647296811269164</v>
@@ -2389,13 +2395,13 @@
         <v>1.130901106325479</v>
       </c>
       <c r="D56">
-        <v>0.9248251748251747</v>
+        <v>0.8576373864128083</v>
       </c>
       <c r="E56">
-        <v>0.8576814326107447</v>
+        <v>0.9248955223880596</v>
       </c>
       <c r="F56">
-        <v>0.947592467294617</v>
+        <v>0.94760114674505</v>
       </c>
       <c r="G56">
         <v>0.9670651205963146</v>
@@ -2415,13 +2421,13 @@
         <v>1.150494046110971</v>
       </c>
       <c r="D57">
-        <v>0.9518850714502889</v>
+        <v>0.8934907584842678</v>
       </c>
       <c r="E57">
-        <v>0.8934967012252591</v>
+        <v>0.9518805970149253</v>
       </c>
       <c r="F57">
-        <v>0.977112071587228</v>
+        <v>0.9771086339190309</v>
       </c>
       <c r="G57">
         <v>0.9818881721848689</v>
@@ -2441,13 +2447,13 @@
         <v>1.159614897390423</v>
       </c>
       <c r="D58">
-        <v>0.9535573122529644</v>
+        <v>0.882178401434135</v>
       </c>
       <c r="E58">
-        <v>0.8821866163996231</v>
+        <v>0.9535522388059701</v>
       </c>
       <c r="F58">
-        <v>0.9749616339499975</v>
+        <v>0.9749572487738782</v>
       </c>
       <c r="G58">
         <v>0.9823829021329928</v>
@@ -2467,13 +2473,13 @@
         <v>1.169411367283169</v>
       </c>
       <c r="D59">
-        <v>0.9683794466403162</v>
+        <v>0.8925016999443655</v>
       </c>
       <c r="E59">
-        <v>0.8925541941564561</v>
+        <v>0.9684776119402986</v>
       </c>
       <c r="F59">
-        <v>0.9871895153825552</v>
+        <v>0.9872045868415593</v>
       </c>
       <c r="G59">
         <v>0.9863752942857905</v>
@@ -2493,13 +2499,13 @@
         <v>1.160459420657039</v>
       </c>
       <c r="D60">
-        <v>0.9633627242322895</v>
+        <v>0.8811893428942326</v>
       </c>
       <c r="E60">
-        <v>0.8812441093308201</v>
+        <v>0.9634626865671641</v>
       </c>
       <c r="F60">
-        <v>0.9763509491801154</v>
+        <v>0.9763658638265502</v>
       </c>
       <c r="G60">
         <v>0.9822462624330348</v>
@@ -2519,13 +2525,13 @@
         <v>1.196436111814881</v>
       </c>
       <c r="D61">
-        <v>0.9886743691091516</v>
+        <v>0.898188786548804</v>
       </c>
       <c r="E61">
-        <v>0.8982092365692743</v>
+        <v>0.9887761194029849</v>
       </c>
       <c r="F61">
-        <v>0.9978454819688301</v>
+        <v>0.9978723110590398</v>
       </c>
       <c r="G61">
         <v>0.9912911823417532</v>
@@ -2545,13 +2551,13 @@
         <v>1.177518790642682</v>
       </c>
       <c r="D62">
-        <v>0.997187595013682</v>
+        <v>0.9095011435989369</v>
       </c>
       <c r="E62">
-        <v>0.9095193213949105</v>
+        <v>0.9972537313432837</v>
       </c>
       <c r="F62">
-        <v>1.002564810157425</v>
+        <v>1.002580636473522</v>
       </c>
       <c r="G62">
         <v>0.9936391863812625</v>
@@ -2571,13 +2577,13 @@
         <v>1.191706781521831</v>
       </c>
       <c r="D63">
-        <v>0.979477044694436</v>
+        <v>0.914199171663473</v>
       </c>
       <c r="E63">
-        <v>0.9142318567389255</v>
+        <v>0.9795820895522388</v>
       </c>
       <c r="F63">
-        <v>1.001594090331721</v>
+        <v>1.001617969059896</v>
       </c>
       <c r="G63">
         <v>0.9962290583954103</v>
@@ -2597,13 +2603,13 @@
         <v>1.241618106578836</v>
       </c>
       <c r="D64">
-        <v>0.9690635451505015</v>
+        <v>0.9085739012177784</v>
       </c>
       <c r="E64">
-        <v>0.9085768143261075</v>
+        <v>0.9690746268656716</v>
       </c>
       <c r="F64">
-        <v>1.006757631313584</v>
+        <v>1.006760326953842</v>
       </c>
       <c r="G64">
         <v>0.9970112028848254</v>
@@ -2623,13 +2629,13 @@
         <v>1.257072882357909</v>
       </c>
       <c r="D65">
-        <v>0.9863940407418669</v>
+        <v>0.9038140569944983</v>
       </c>
       <c r="E65">
-        <v>0.9038642789820923</v>
+        <v>0.9863880597014925</v>
       </c>
       <c r="F65">
-        <v>1.015664425633208</v>
+        <v>1.015645878633978</v>
       </c>
       <c r="G65">
         <v>0.9983728881706143</v>
@@ -2649,13 +2655,13 @@
         <v>1.268896208090533</v>
       </c>
       <c r="D66">
-        <v>0.9756764974156279</v>
+        <v>0.8906472151820487</v>
       </c>
       <c r="E66">
-        <v>0.8906691800188501</v>
+        <v>0.9757611940298507</v>
       </c>
       <c r="F66">
-        <v>1.009380256089262</v>
+        <v>1.009400957575811</v>
       </c>
       <c r="G66">
         <v>0.9949945893819959</v>
@@ -2675,13 +2681,13 @@
         <v>1.285026602482898</v>
       </c>
       <c r="D67">
-        <v>0.9427637579811492</v>
+        <v>0.8633244730172468</v>
       </c>
       <c r="E67">
-        <v>0.8633364750235627</v>
+        <v>0.9428059701492537</v>
       </c>
       <c r="F67">
-        <v>0.9852399449926601</v>
+        <v>0.9852499143460504</v>
       </c>
       <c r="G67">
         <v>0.9779036328883906</v>
@@ -2701,13 +2707,13 @@
         <v>1.262562283590913</v>
       </c>
       <c r="D68">
-        <v>0.9540893888719976</v>
+        <v>0.8670952587006244</v>
       </c>
       <c r="E68">
-        <v>0.8671065032987748</v>
+        <v>0.9541492537313433</v>
       </c>
       <c r="F68">
-        <v>0.9852608499107607</v>
+        <v>0.9852768945969552</v>
       </c>
       <c r="G68">
         <v>0.9752902023052845</v>
@@ -2727,13 +2733,13 @@
         <v>1.283084198969682</v>
       </c>
       <c r="D69">
-        <v>0.9620705381574948</v>
+        <v>0.9038140569944983</v>
       </c>
       <c r="E69">
-        <v>0.9038642789820923</v>
+        <v>0.9621492537313432</v>
       </c>
       <c r="F69">
-        <v>1.007324778789552</v>
+        <v>1.007334181673016</v>
       </c>
       <c r="G69">
         <v>0.9858805643376666</v>
@@ -2753,13 +2759,13 @@
         <v>1.273541086056921</v>
       </c>
       <c r="D70">
-        <v>0.9607783520826999</v>
+        <v>0.9038140569944983</v>
       </c>
       <c r="E70">
-        <v>0.9038642789820923</v>
+        <v>0.9608358208955223</v>
       </c>
       <c r="F70">
-        <v>1.007844917078589</v>
+        <v>1.007847308530914</v>
       </c>
       <c r="G70">
         <v>0.9857627714928752</v>
@@ -2779,13 +2785,13 @@
         <v>1.276834726796723</v>
       </c>
       <c r="D71">
-        <v>0.9591821222256005</v>
+        <v>0.9028868146133399</v>
       </c>
       <c r="E71">
-        <v>0.9029217719132893</v>
+        <v>0.9592835820895522</v>
       </c>
       <c r="F71">
-        <v>1.006626805905227</v>
+        <v>1.006648751751348</v>
       </c>
       <c r="G71">
         <v>0.9956777878817863</v>
@@ -2805,13 +2811,13 @@
         <v>1.269656279030488</v>
       </c>
       <c r="D72">
-        <v>0.9800091213134691</v>
+        <v>0.9556778141806269</v>
       </c>
       <c r="E72">
-        <v>0.9557021677662583</v>
+        <v>0.9800597014925373</v>
       </c>
       <c r="F72">
-        <v>1.035959626164826</v>
+        <v>1.035968280940661</v>
       </c>
       <c r="G72">
         <v>1.009132871899496</v>
@@ -2831,13 +2837,13 @@
         <v>1.280635081496495</v>
       </c>
       <c r="D73">
-        <v>0.9905746427485557</v>
+        <v>0.9509797861160908</v>
       </c>
       <c r="E73">
-        <v>0.9509896324222431</v>
+        <v>0.9905671641791045</v>
       </c>
       <c r="F73">
-        <v>1.038128866018793</v>
+        <v>1.038123148809843</v>
       </c>
       <c r="G73">
         <v>1.009648019274051</v>
@@ -2857,13 +2863,13 @@
         <v>1.252596909044844</v>
       </c>
       <c r="D74">
-        <v>1.005624809972636</v>
+        <v>0.9509797861160908</v>
       </c>
       <c r="E74">
-        <v>0.9509896324222431</v>
+        <v>1.005731343283582</v>
       </c>
       <c r="F74">
-        <v>1.037103252873613</v>
+        <v>1.037135159585195</v>
       </c>
       <c r="G74">
         <v>1.008347586267553</v>
@@ -2883,13 +2889,13 @@
         <v>1.275314584916815</v>
       </c>
       <c r="D75">
-        <v>1.006232897537245</v>
+        <v>0.9528342708784078</v>
       </c>
       <c r="E75">
-        <v>0.9528746465598491</v>
+        <v>1.006328358208955</v>
       </c>
       <c r="F75">
-        <v>1.042493166518764</v>
+        <v>1.042511344565553</v>
       </c>
       <c r="G75">
         <v>1.012306996423809</v>
@@ -2909,13 +2915,13 @@
         <v>1.295329786335614</v>
       </c>
       <c r="D76">
-        <v>1.04317421708726</v>
+        <v>0.9641466279285407</v>
       </c>
       <c r="E76">
-        <v>0.9641847313854853</v>
+        <v>1.043223880597015</v>
       </c>
       <c r="F76">
-        <v>1.063699208031085</v>
+        <v>1.063703022848512</v>
       </c>
       <c r="G76">
         <v>1.015022514139068</v>
@@ -2935,13 +2941,13 @@
         <v>1.280466176843172</v>
       </c>
       <c r="D77">
-        <v>1.039525691699605</v>
+        <v>0.9547505717994684</v>
       </c>
       <c r="E77">
-        <v>0.9547596606974551</v>
+        <v>1.039522388059702</v>
       </c>
       <c r="F77">
-        <v>1.058201317588937</v>
+        <v>1.058197228051433</v>
       </c>
       <c r="G77">
         <v>1.011864095327393</v>
@@ -2961,13 +2967,13 @@
         <v>1.270754159277088</v>
       </c>
       <c r="D78">
-        <v>1.063849194283977</v>
+        <v>0.9452926995116523</v>
       </c>
       <c r="E78">
-        <v>0.945334590009425</v>
+        <v>1.063880597014925</v>
       </c>
       <c r="F78">
-        <v>1.061852929968002</v>
+        <v>1.06184946900495</v>
       </c>
       <c r="G78">
         <v>1.012434212696184</v>
@@ -2987,13 +2993,13 @@
         <v>1.282661937336374</v>
       </c>
       <c r="D79">
-        <v>1.072058376406203</v>
+        <v>0.9679174136119183</v>
       </c>
       <c r="E79">
-        <v>0.9679547596606973</v>
+        <v>1.072119402985075</v>
       </c>
       <c r="F79">
-        <v>1.074118098817162</v>
+        <v>1.074125913392093</v>
       </c>
       <c r="G79">
         <v>1.019259915409032</v>
@@ -3013,13 +3019,13 @@
         <v>1.272865467443628</v>
       </c>
       <c r="D80">
-        <v>1.072058376406203</v>
+        <v>0.9650738703096989</v>
       </c>
       <c r="E80">
-        <v>0.9651272384542884</v>
+        <v>1.072119402985075</v>
       </c>
       <c r="F80">
-        <v>1.073198629282959</v>
+        <v>1.073201156566272</v>
       </c>
       <c r="G80">
         <v>1.019603870515823</v>
@@ -3039,13 +3045,13 @@
         <v>1.261717760324297</v>
       </c>
       <c r="D81">
-        <v>1.076695044086349</v>
+        <v>0.9839277987265871</v>
       </c>
       <c r="E81">
-        <v>0.9839773798303488</v>
+        <v>1.076776119402985</v>
       </c>
       <c r="F81">
-        <v>1.078684783345172</v>
+        <v>1.07869517643542</v>
       </c>
       <c r="G81">
         <v>1.018626975189686</v>
@@ -3065,13 +3071,13 @@
         <v>1.325479266953804</v>
       </c>
       <c r="D82">
-        <v>1.045454545454545</v>
+        <v>0.9763862273598318</v>
       </c>
       <c r="E82">
-        <v>0.9764373232799246</v>
+        <v>1.045492537313433</v>
       </c>
       <c r="F82">
-        <v>1.081108878484275</v>
+        <v>1.081104554144077</v>
       </c>
       <c r="G82">
         <v>1.01919866312974</v>
@@ -3091,13 +3097,13 @@
         <v>1.357402246431889</v>
       </c>
       <c r="D83">
-        <v>1.010185466707206</v>
+        <v>0.9499907275761884</v>
       </c>
       <c r="E83">
-        <v>0.9500471253534402</v>
+        <v>1.010268656716418</v>
       </c>
       <c r="F83">
-        <v>1.070923038508002</v>
+        <v>1.070931879944549</v>
       </c>
       <c r="G83">
         <v>1.012145227583629</v>
@@ -3117,13 +3123,13 @@
         <v>1.417954564648256</v>
       </c>
       <c r="D84">
-        <v>1.018546670720584</v>
+        <v>0.9547505717994684</v>
       </c>
       <c r="E84">
-        <v>0.9547596606974551</v>
+        <v>1.018626865671642</v>
       </c>
       <c r="F84">
-        <v>1.094715464123588</v>
+        <v>1.094738929121102</v>
       </c>
       <c r="G84">
         <v>1.017100379921189</v>
@@ -3143,13 +3149,13 @@
         <v>1.378853137403936</v>
       </c>
       <c r="D85">
-        <v>1.035725144420797</v>
+        <v>0.9387401866847994</v>
       </c>
       <c r="E85">
-        <v>0.9387370405278039</v>
+        <v>1.035820895522388</v>
       </c>
       <c r="F85">
-        <v>1.080507924762078</v>
+        <v>1.080540560857411</v>
       </c>
       <c r="G85">
         <v>1.013967090249737</v>
@@ -3169,13 +3175,13 @@
         <v>1.394814627142978</v>
       </c>
       <c r="D86">
-        <v>1.058224384311341</v>
+        <v>0.9424491562094331</v>
       </c>
       <c r="E86">
-        <v>0.942507068803016</v>
+        <v>1.058268656716418</v>
       </c>
       <c r="F86">
-        <v>1.092763322932167</v>
+        <v>1.09275882166996</v>
       </c>
       <c r="G86">
         <v>1.022763859898761</v>
@@ -3195,13 +3201,13 @@
         <v>1.330968668186809</v>
       </c>
       <c r="D87">
-        <v>1.063165095773791</v>
+        <v>0.9236570439512889</v>
       </c>
       <c r="E87">
-        <v>0.9236569274269556</v>
+        <v>1.063164179104477</v>
       </c>
       <c r="F87">
-        <v>1.068084830136893</v>
+        <v>1.068084566089049</v>
       </c>
       <c r="G87">
         <v>1.011295548529867</v>
@@ -3221,13 +3227,13 @@
         <v>1.326323790220421</v>
       </c>
       <c r="D88">
-        <v>1.069550015202189</v>
+        <v>0.9519070284972493</v>
       </c>
       <c r="E88">
-        <v>0.9519321394910462</v>
+        <v>1.069611940298508</v>
       </c>
       <c r="F88">
-        <v>1.079606130694881</v>
+        <v>1.079618279348713</v>
       </c>
       <c r="G88">
         <v>1.024923395386604</v>
@@ -3247,13 +3253,13 @@
         <v>1.32100329364074</v>
       </c>
       <c r="D89">
-        <v>1.095317725752508</v>
+        <v>0.9924584286332447</v>
       </c>
       <c r="E89">
-        <v>0.9924599434495758</v>
+        <v>1.095402985074627</v>
       </c>
       <c r="F89">
-        <v>1.105700153718577</v>
+        <v>1.105727789405486</v>
       </c>
       <c r="G89">
         <v>1.033143765381782</v>
@@ -3273,13 +3279,13 @@
         <v>1.335697998479858</v>
       </c>
       <c r="D90">
-        <v>1.088096685922773</v>
+        <v>0.9933856710144032</v>
       </c>
       <c r="E90">
-        <v>0.9934024505183789</v>
+        <v>1.088119402985075</v>
       </c>
       <c r="F90">
-        <v>1.108460164890613</v>
+        <v>1.10846212428486</v>
       </c>
       <c r="G90">
         <v>1.036514211314081</v>
@@ -3299,13 +3305,13 @@
         <v>1.312980322607888</v>
       </c>
       <c r="D91">
-        <v>1.078139252052296</v>
+        <v>1.0263336836249</v>
       </c>
       <c r="E91">
-        <v>1.026390197926484</v>
+        <v>1.07820895522388</v>
       </c>
       <c r="F91">
-        <v>1.11322236099066</v>
+        <v>1.11322671331776</v>
       </c>
       <c r="G91">
         <v>1.034125372421711</v>
@@ -3325,13 +3331,13 @@
         <v>1.262308926610928</v>
       </c>
       <c r="D92">
-        <v>1.090148981453329</v>
+        <v>1.032020770229338</v>
       </c>
       <c r="E92">
-        <v>1.032045240339303</v>
+        <v>1.090149253731343</v>
       </c>
       <c r="F92">
-        <v>1.104812907011723</v>
+        <v>1.104804921727179</v>
       </c>
       <c r="G92">
         <v>1.028521574152166</v>
@@ -3351,13 +3357,13 @@
         <v>1.286124482729499</v>
       </c>
       <c r="D93">
-        <v>1.095165703861356</v>
+        <v>1.027322742164802</v>
       </c>
       <c r="E93">
-        <v>1.027332704995288</v>
+        <v>1.095164179104477</v>
       </c>
       <c r="F93">
-        <v>1.109986130813868</v>
+        <v>1.109982339910037</v>
       </c>
       <c r="G93">
         <v>1.025246933066964</v>
@@ -3377,13 +3383,13 @@
         <v>1.266278185964024</v>
       </c>
       <c r="D94">
-        <v>1.092201276983886</v>
+        <v>1.02824998454596</v>
       </c>
       <c r="E94">
-        <v>1.02827521206409</v>
+        <v>1.092298507462687</v>
       </c>
       <c r="F94">
-        <v>1.104635397197247</v>
+        <v>1.104659158174268</v>
       </c>
       <c r="G94">
         <v>1.027800681942043</v>
@@ -3403,13 +3409,13 @@
         <v>1.275567941896799</v>
       </c>
       <c r="D95">
-        <v>1.118121009425357</v>
+        <v>1.037646040675033</v>
       </c>
       <c r="E95">
-        <v>1.037700282752121</v>
+        <v>1.118208955223881</v>
       </c>
       <c r="F95">
-        <v>1.119406341973122</v>
+        <v>1.119417464201196</v>
       </c>
       <c r="G95">
         <v>1.0396663478407</v>
@@ -3429,13 +3435,13 @@
         <v>1.273794443036906</v>
       </c>
       <c r="D96">
-        <v>1.114548494983277</v>
+        <v>1.032020770229338</v>
       </c>
       <c r="E96">
-        <v>1.032045240339303</v>
+        <v>1.114626865671642</v>
       </c>
       <c r="F96">
-        <v>1.117721975627046</v>
+        <v>1.117739762817918</v>
       </c>
       <c r="G96">
         <v>1.041007615700059</v>
@@ -3455,13 +3461,13 @@
         <v>1.28139515243645</v>
       </c>
       <c r="D97">
-        <v>1.134691395560961</v>
+        <v>1.036718798293874</v>
       </c>
       <c r="E97">
-        <v>1.036757775683318</v>
+        <v>1.134686567164179</v>
       </c>
       <c r="F97">
-        <v>1.127249970326043</v>
+        <v>1.127235514416589</v>
       </c>
       <c r="G97">
         <v>1.049991283329486</v>
@@ -3481,13 +3487,13 @@
         <v>1.276834726796723</v>
       </c>
       <c r="D98">
-        <v>1.110671936758893</v>
+        <v>1.079124683192187</v>
       </c>
       <c r="E98">
-        <v>1.079170593779453</v>
+        <v>1.110686567164179</v>
       </c>
       <c r="F98">
-        <v>1.135365247275073</v>
+        <v>1.135354924815019</v>
       </c>
       <c r="G98">
         <v>1.047283618470546</v>
@@ -3507,13 +3513,13 @@
         <v>1.276750274470062</v>
       </c>
       <c r="D99">
-        <v>1.122301611432046</v>
+        <v>1.130061197997157</v>
       </c>
       <c r="E99">
-        <v>1.130065975494816</v>
+        <v>1.122388059701492</v>
       </c>
       <c r="F99">
-        <v>1.161172307135899</v>
+        <v>1.161199258490588</v>
       </c>
       <c r="G99">
         <v>1.0568358328975</v>
@@ -3533,13 +3539,13 @@
         <v>1.282830841989697</v>
       </c>
       <c r="D100">
-        <v>1.145104895104895</v>
+        <v>1.116832540025963</v>
       </c>
       <c r="E100">
-        <v>1.116870876531574</v>
+        <v>1.145194029850746</v>
       </c>
       <c r="F100">
-        <v>1.165662136667172</v>
+        <v>1.165678900086451</v>
       </c>
       <c r="G100">
         <v>1.058527338148705</v>
@@ -3559,13 +3565,13 @@
         <v>1.263913520817499</v>
       </c>
       <c r="D101">
-        <v>1.121389480085132</v>
+        <v>1.111207269580268</v>
       </c>
       <c r="E101">
-        <v>1.111215834118756</v>
+        <v>1.121432835820896</v>
       </c>
       <c r="F101">
-        <v>1.14996678062132</v>
+        <v>1.149978261716421</v>
       </c>
       <c r="G101">
         <v>1.049366195966459</v>
@@ -3585,13 +3591,13 @@
         <v>1.28933367114264</v>
       </c>
       <c r="D102">
-        <v>1.111051991486774</v>
+        <v>1.106447425356988</v>
       </c>
       <c r="E102">
-        <v>1.106503298774741</v>
+        <v>1.111164179104478</v>
       </c>
       <c r="F102">
-        <v>1.149372068645981</v>
+        <v>1.149390652331965</v>
       </c>
       <c r="G102">
         <v>1.047214513334935</v>
@@ -3611,13 +3617,13 @@
         <v>1.27294991977029</v>
       </c>
       <c r="D103">
-        <v>1.123517786561265</v>
+        <v>1.133831983680534</v>
       </c>
       <c r="E103">
-        <v>1.133836003770028</v>
+        <v>1.123582089552239</v>
       </c>
       <c r="F103">
-        <v>1.159149471738177</v>
+        <v>1.159169365095666</v>
       </c>
       <c r="G103">
         <v>1.051192770346358</v>
@@ -3637,13 +3643,13 @@
         <v>1.25977535681108</v>
       </c>
       <c r="D104">
-        <v>1.125038005472788</v>
+        <v>1.113061754342585</v>
       </c>
       <c r="E104">
-        <v>1.113100848256362</v>
+        <v>1.125134328358209</v>
       </c>
       <c r="F104">
-        <v>1.149712570660108</v>
+        <v>1.149731456220751</v>
       </c>
       <c r="G104">
         <v>1.055659475020849</v>
@@ -3663,13 +3669,13 @@
         <v>1.262224474284267</v>
       </c>
       <c r="D105">
-        <v>1.114320462146549</v>
+        <v>1.10552018297583</v>
       </c>
       <c r="E105">
-        <v>1.105560791705938</v>
+        <v>1.114388059701493</v>
       </c>
       <c r="F105">
-        <v>1.139805641066313</v>
+        <v>1.139814547378508</v>
       </c>
       <c r="G105">
         <v>1.049857784772055</v>
@@ -3689,13 +3695,13 @@
         <v>1.281648509416434</v>
       </c>
       <c r="D106">
-        <v>1.118805107935543</v>
+        <v>1.103665698213513</v>
       </c>
       <c r="E106">
-        <v>1.103675777568332</v>
+        <v>1.118805970149254</v>
       </c>
       <c r="F106">
-        <v>1.144553259804727</v>
+        <v>1.144550218148161</v>
       </c>
       <c r="G106">
         <v>1.051167641206136</v>
@@ -3715,13 +3721,13 @@
         <v>1.293978549109028</v>
       </c>
       <c r="D107">
-        <v>1.12777439951353</v>
+        <v>1.141311738888546</v>
       </c>
       <c r="E107">
-        <v>1.141376060320452</v>
+        <v>1.127880597014925</v>
       </c>
       <c r="F107">
-        <v>1.162889832254243</v>
+        <v>1.162903651357174</v>
       </c>
       <c r="G107">
         <v>1.062591976579641</v>
@@ -3741,13 +3747,13 @@
         <v>1.306899755088253</v>
       </c>
       <c r="D108">
-        <v>1.119109151717847</v>
+        <v>1.152624095938678</v>
       </c>
       <c r="E108">
-        <v>1.152686145146089</v>
+        <v>1.119164179104478</v>
       </c>
       <c r="F108">
-        <v>1.166110344601707</v>
+        <v>1.16610802740085</v>
       </c>
       <c r="G108">
         <v>1.056353667519487</v>
@@ -3767,13 +3773,13 @@
         <v>1.277763702390001</v>
       </c>
       <c r="D109">
-        <v>1.10717543326239</v>
+        <v>1.144155282190765</v>
       </c>
       <c r="E109">
-        <v>1.144203581526861</v>
+        <v>1.107223880597015</v>
       </c>
       <c r="F109">
-        <v>1.147770953669469</v>
+        <v>1.147771002508984</v>
       </c>
       <c r="G109">
         <v>1.046575290830534</v>
@@ -3793,13 +3799,13 @@
         <v>1.253188075331475</v>
       </c>
       <c r="D110">
-        <v>1.0669656430526</v>
+        <v>1.076281139889967</v>
       </c>
       <c r="E110">
-        <v>1.076343072573044</v>
+        <v>1.066985074626866</v>
       </c>
       <c r="F110">
-        <v>1.099988169950468</v>
+        <v>1.09997414458456</v>
       </c>
       <c r="G110">
         <v>1.031282638434078</v>
@@ -3819,13 +3825,13 @@
         <v>1.239844607718943</v>
       </c>
       <c r="D111">
-        <v>1.080115536637276</v>
+        <v>1.10552018297583</v>
       </c>
       <c r="E111">
-        <v>1.105560791705938</v>
+        <v>1.080119402985074</v>
       </c>
       <c r="F111">
-        <v>1.112423067961777</v>
+        <v>1.112410942975615</v>
       </c>
       <c r="G111">
         <v>1.03911664789834</v>
@@ -3845,13 +3851,13 @@
         <v>1.238324465839034</v>
       </c>
       <c r="D112">
-        <v>1.098738218303436</v>
+        <v>1.152624095938678</v>
       </c>
       <c r="E112">
-        <v>1.152686145146089</v>
+        <v>1.098746268656716</v>
       </c>
       <c r="F112">
-        <v>1.136850137402584</v>
+        <v>1.136832317780721</v>
       </c>
       <c r="G112">
         <v>1.045648653784841</v>
@@ -3871,13 +3877,13 @@
         <v>1.26399797314416</v>
       </c>
       <c r="D113">
-        <v>1.118121009425357</v>
+        <v>1.157383940161958</v>
       </c>
       <c r="E113">
-        <v>1.157398680490104</v>
+        <v>1.118208955223881</v>
       </c>
       <c r="F113">
-        <v>1.148309795081918</v>
+        <v>1.148333952887143</v>
       </c>
       <c r="G113">
         <v>1.053410416970965</v>
@@ -3897,13 +3903,13 @@
         <v>1.257072882357909</v>
       </c>
       <c r="D114">
-        <v>1.145332927941624</v>
+        <v>1.161154725845336</v>
       </c>
       <c r="E114">
-        <v>1.161168708765316</v>
+        <v>1.145432835820896</v>
       </c>
       <c r="F114">
-        <v>1.158347189373394</v>
+        <v>1.15837554460996</v>
       </c>
       <c r="G114">
         <v>1.058532049862497</v>
@@ -3923,13 +3929,13 @@
         <v>1.268558398783887</v>
       </c>
       <c r="D115">
-        <v>1.138948008513226</v>
+        <v>1.190331952772455</v>
       </c>
       <c r="E115">
-        <v>1.190386427898209</v>
+        <v>1.138985074626866</v>
       </c>
       <c r="F115">
-        <v>1.170772822673232</v>
+        <v>1.170767077699234</v>
       </c>
       <c r="G115">
         <v>1.066410035322148</v>
@@ -3949,13 +3955,13 @@
         <v>1.269487374377164</v>
       </c>
       <c r="D116">
-        <v>1.120477348738218</v>
+        <v>1.175248810038944</v>
       </c>
       <c r="E116">
-        <v>1.175306314797361</v>
+        <v>1.120477611940299</v>
       </c>
       <c r="F116">
-        <v>1.158717265079995</v>
+        <v>1.158698375366404</v>
       </c>
       <c r="G116">
         <v>1.060900471328436</v>
@@ -3975,13 +3981,13 @@
         <v>1.298370070095431</v>
       </c>
       <c r="D117">
-        <v>1.152858011553664</v>
+        <v>1.193175496074674</v>
       </c>
       <c r="E117">
-        <v>1.193213949104618</v>
+        <v>1.152955223880597</v>
       </c>
       <c r="F117">
-        <v>1.184873325600123</v>
+        <v>1.184892716168129</v>
       </c>
       <c r="G117">
         <v>1.070094595507224</v>
@@ -3995,25 +4001,259 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>1.117333333333333</v>
+        <v>1.108444444444445</v>
       </c>
       <c r="C118">
-        <v>1.298370070095431</v>
+        <v>1.285533316442868</v>
       </c>
       <c r="D118">
-        <v>1.152858011553664</v>
+        <v>1.222414539160537</v>
       </c>
       <c r="E118">
-        <v>1.193213949104618</v>
+        <v>1.168477611940298</v>
       </c>
       <c r="F118">
-        <v>1.184873325600123</v>
+        <v>1.195970629214119</v>
       </c>
       <c r="G118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="H118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>1.093728395061728</v>
+      </c>
+      <c r="C119">
+        <v>1.265940376657377</v>
+      </c>
+      <c r="D119">
+        <v>1.226185324843914</v>
+      </c>
+      <c r="E119">
+        <v>1.166686567164179</v>
+      </c>
+      <c r="F119">
+        <v>1.190791415554919</v>
+      </c>
+      <c r="G119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="H119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>1.111901234567901</v>
+      </c>
+      <c r="C120">
+        <v>1.272612110463643</v>
+      </c>
+      <c r="D120">
+        <v>1.254435309389875</v>
+      </c>
+      <c r="E120">
+        <v>1.170149253731343</v>
+      </c>
+      <c r="F120">
+        <v>1.205480174485364</v>
+      </c>
+      <c r="G120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="H120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>1.092049382716049</v>
+      </c>
+      <c r="C121">
+        <v>1.273287729076936</v>
+      </c>
+      <c r="D121">
+        <v>1.241268467577425</v>
+      </c>
+      <c r="E121">
+        <v>1.189373134328358</v>
+      </c>
+      <c r="F121">
+        <v>1.204219037633716</v>
+      </c>
+      <c r="G121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="H121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>1.105679012345679</v>
+      </c>
+      <c r="C122">
+        <v>1.271260873237058</v>
+      </c>
+      <c r="D122">
+        <v>1.235581380972986</v>
+      </c>
+      <c r="E122">
+        <v>1.13134328358209</v>
+      </c>
+      <c r="F122">
+        <v>1.18516491985224</v>
+      </c>
+      <c r="G122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="H122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>1.155950617283951</v>
+      </c>
+      <c r="C123">
+        <v>1.276074655856769</v>
+      </c>
+      <c r="D123">
+        <v>1.263893181677691</v>
+      </c>
+      <c r="E123">
+        <v>1.134208955223881</v>
+      </c>
+      <c r="F123">
+        <v>1.204818001611441</v>
+      </c>
+      <c r="G123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="H123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>1.167012345679012</v>
+      </c>
+      <c r="C124">
+        <v>1.268305041803902</v>
+      </c>
+      <c r="D124">
+        <v>1.263893181677691</v>
+      </c>
+      <c r="E124">
+        <v>1.081910447761194</v>
+      </c>
+      <c r="F124">
+        <v>1.188119153586928</v>
+      </c>
+      <c r="G124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="H124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>1.202469135802469</v>
+      </c>
+      <c r="C125">
+        <v>1.299636854995355</v>
+      </c>
+      <c r="D125">
+        <v>1.332694566359646</v>
+      </c>
+      <c r="E125">
+        <v>1.117970149253731</v>
+      </c>
+      <c r="F125">
+        <v>1.234077374588045</v>
+      </c>
+      <c r="G125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="H125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>1.20720987654321</v>
+      </c>
+      <c r="C126">
+        <v>1.277256988430031</v>
+      </c>
+      <c r="D126">
+        <v>1.352475737157693</v>
+      </c>
+      <c r="E126">
+        <v>1.08644776119403</v>
+      </c>
+      <c r="F126">
+        <v>1.22720412150152</v>
+      </c>
+      <c r="G126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="H126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>1.275259259259259</v>
+      </c>
+      <c r="C127">
+        <v>1.31728739126763</v>
+      </c>
+      <c r="D127">
+        <v>1.37225690795574</v>
+      </c>
+      <c r="E127">
+        <v>1.084179104477612</v>
+      </c>
+      <c r="F127">
+        <v>1.251356814692577</v>
+      </c>
+      <c r="G127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="H127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -4125,18 +4365,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
@@ -4168,28 +4408,25 @@
       <c r="L1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
         <v>58</v>
@@ -4201,36 +4438,33 @@
         <v>0.17</v>
       </c>
       <c r="J2">
-        <v>39.53</v>
+        <v>3.554100036621094</v>
       </c>
       <c r="K2">
-        <v>3.11</v>
+        <v>45.20259857177734</v>
       </c>
       <c r="L2">
-        <v>16.99</v>
-      </c>
-      <c r="M2">
-        <v>24.35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>24.3531</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
         <v>59</v>
@@ -4242,36 +4476,33 @@
         <v>0.17</v>
       </c>
       <c r="J3">
-        <v>12.07</v>
+        <v>1.256600022315979</v>
       </c>
       <c r="K3">
-        <v>1.24</v>
+        <v>12.42870044708252</v>
       </c>
       <c r="L3">
-        <v>2.59</v>
-      </c>
-      <c r="M3">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>1.5765</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
         <v>60</v>
@@ -4283,33 +4514,30 @@
         <v>0.33</v>
       </c>
       <c r="J4">
-        <v>53.46</v>
+        <v>10.94120025634766</v>
       </c>
       <c r="K4">
-        <v>12.86</v>
+        <v>161.9600982666016</v>
       </c>
       <c r="L4">
-        <v>35.09</v>
-      </c>
-      <c r="M4">
-        <v>77.62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>31.9832</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
         <v>57</v>
@@ -4324,16 +4552,13 @@
         <v>0.33</v>
       </c>
       <c r="J5">
-        <v>141.9</v>
+        <v>12.25669956207275</v>
       </c>
       <c r="K5">
-        <v>9.640000000000001</v>
+        <v>50.5802001953125</v>
       </c>
       <c r="L5">
-        <v>12.41</v>
-      </c>
-      <c r="M5">
-        <v>31.98</v>
+        <v>77.6234</v>
       </c>
     </row>
   </sheetData>
@@ -4377,13 +4602,13 @@
         <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4397,13 +4622,13 @@
         <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4417,13 +4642,13 @@
         <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F4" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4437,13 +4662,13 @@
         <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F5" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4457,13 +4682,13 @@
         <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F6" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4477,13 +4702,13 @@
         <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4497,13 +4722,13 @@
         <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F8" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4514,16 +4739,16 @@
         <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F9" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4534,16 +4759,16 @@
         <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F10" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4554,16 +4779,16 @@
         <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F11" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4574,16 +4799,16 @@
         <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E12" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F12" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4594,16 +4819,16 @@
         <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E13" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F13" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4614,16 +4839,16 @@
         <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E14" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F14" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4634,16 +4859,16 @@
         <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E15" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F15" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4654,16 +4879,16 @@
         <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E16" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F16" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4674,16 +4899,16 @@
         <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E17" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4694,16 +4919,16 @@
         <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E18" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F18" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4714,16 +4939,16 @@
         <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E19" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F19" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4734,16 +4959,16 @@
         <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E20" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F20" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4754,16 +4979,16 @@
         <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="D21" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E21" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F21" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -4773,7 +4998,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4781,65 +5006,65 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4847,65 +5072,43 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="C7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C9" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>176</v>
-      </c>
-      <c r="C12" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
